--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/17/word_level_predictions_17.xlsx
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3362,262 +3362,262 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>35</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>36</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>37</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>38</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>39</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4714,208 +4714,208 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/17/word_level_predictions_17.xlsx
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3362,262 +3362,262 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="A57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4714,208 +4714,208 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>2</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>20</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>2</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>21</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>2</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>22</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>2</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>23</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
